--- a/7. Handling_Duplicates.xlsx
+++ b/7. Handling_Duplicates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\GitHub_Clone_Repo\Rahul_Repo\Me_Mastering_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E26646B8-E64C-406C-B6DA-86181258B07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60A3BDF-F701-495D-B388-ED02C983BCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F64E106A-1811-48E0-8E42-C0BFF9907D3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F64E106A-1811-48E0-8E42-C0BFF9907D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>kkkkk</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,12 +486,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDE72BA-7A86-453F-B9C0-968C2FB40ED4}">
-  <dimension ref="A1"/>
+  <dimension ref="K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="10" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/7. Handling_Duplicates.xlsx
+++ b/7. Handling_Duplicates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60A3BDF-F701-495D-B388-ED02C983BCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5810D3F-CA5A-447D-8DB9-F4D186EB4DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F64E106A-1811-48E0-8E42-C0BFF9907D3B}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>kkkkk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
   </si>
 </sst>
 </file>
@@ -486,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDE72BA-7A86-453F-B9C0-968C2FB40ED4}">
-  <dimension ref="K10"/>
+  <dimension ref="J10:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,6 +502,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
